--- a/fr/extracted_walkthrough.xlsx.xlsx
+++ b/fr/extracted_walkthrough.xlsx.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="441">
   <si>
     <t>Texte Japonais</t>
   </si>
@@ -24,17 +24,35 @@
 物語を進めていこう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Use "Records" and check
+"The Story So Far" to see
+where to head next.</t>
+  </si>
+  <si>
     <t xml:space="preserve">新たなる冒険にそなえ
 町の酒場にいる
 紹介人に話しかけよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Prepare for new adventures.
+Talk to an Introducer at the
+tavern in any town.</t>
+  </si>
+  <si>
     <t xml:space="preserve">エテーネの村のアバの家にいる
 アバさまに　謝りにいこう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go apologize to Lady
+Abba's house in Ethene Village.</t>
+  </si>
+  <si>
     <t xml:space="preserve">久遠の森にいる　イココと話し
 世界樹の頂へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk to Ikoko in Eternal Wood
+and go to the top of Yggdrasil.</t>
   </si>
   <si>
     <t xml:space="preserve">久遠の森にいる　イココと話し
@@ -42,31 +60,65 @@
 紫獅鬼バイロゼオを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Talk with Ikoko in Eternal Wood
+and defeat Purple Lion Byrozeo
+at the World Tree Top.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ツスクルの村の巫女の館にいる
 巫女ヒメアの話を聞こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's listen to Maiden Himea in
+the Maiden Manor in Tsusukul
+Village.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ランガーオの村で
 ヘビ使いの男を探そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Find the snake charmer in
+Langao Village.</t>
+  </si>
+  <si>
     <t xml:space="preserve">グレン城下町駅で
 マイユを見かけた人を探そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Find out who has seen Maille at
+Glen Castle Town Stop.</t>
+  </si>
+  <si>
     <t xml:space="preserve">グレン城の玉座の間で
 バグド王の話を聞こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Listen to King Bagudo in the
+throne room of Glen Castle.</t>
+  </si>
+  <si>
     <t>獅子門でマイユを探そう。</t>
+  </si>
+  <si>
+    <t>Look for Maille at Lion Gate.</t>
   </si>
   <si>
     <t xml:space="preserve">ランガーオ村の村王の家にいる
 カシャに報告しよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Report to Kasha at the Chief's
+home in Langao Village.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ゴズ渓谷の大雪柱で
 いやしの雪中花を手に入れよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get a healing snowflake at
+Large Snow Pillar in Goz
+Valley.</t>
   </si>
   <si>
     <t xml:space="preserve">ランガーオ村の
@@ -74,15 +126,34 @@
 いやしの雪中花を届けよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Deliver the healing snowflakes
+to Arold at the Chief's home in
+Langao Village.</t>
+  </si>
+  <si>
     <t>ランガーオ村の武闘場へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to Langao Village
+Village Arena.</t>
   </si>
   <si>
     <t xml:space="preserve">ランガーオ村の武闘場へ行き
 竜将アンテロを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to the Village Arena in
+Langao Village and defeat the
+Dragon General Antelo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ランガーオ村の　村王の家にある
 マイユの部屋へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to Maille's room at
+the Chief's home in Langao
+Village.</t>
   </si>
   <si>
     <t xml:space="preserve">真のグランゼドーラ城の
@@ -90,13 +161,28 @@
 シオンに会いにいこう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go see Shion in his
+bedroom in the East Tower of
+the true Gran Zedora Castle.</t>
+  </si>
+  <si>
     <t xml:space="preserve">飛竜に乗って　モンセロ温泉峡の
 南にある煙霧の谷へ行き
 壁画の前で　竜笛を吹こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Ride the flying dragon to Misty
+Valley, south of Moncello
+Spring Gorge, and blow [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">竜族の隠れ里の　族長の家にいる
 オルゲンの話を聞こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's listen to Orgen, who is
+in the Chief's home in Hidden
+Dragon Town.</t>
   </si>
   <si>
     <t xml:space="preserve">竜族の隠れ里の中心にある
@@ -104,23 +190,47 @@
 幻竜草を手に入れよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Get Ghostlily around the Dragon
+Incense in the center of Hidden
+Dragon Town.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ドラクロン山地　第１層の
 中央の洞窟で　スカルゴンを倒し
 竜の芯骨を手に入れよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Draklon Mountains, Level 1,
+center cave, defeat Skelegon
+and get the Dragon Bone.</t>
+  </si>
+  <si>
     <t xml:space="preserve">竜族の隠れ里の
 族長の家にいるオルゲンに
 幻竜草と　竜の芯骨を届けよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Deliver Ghostlily and Dragon
+Bone to Orgen at Chief's home
+in Hidden Dragon Town.</t>
+  </si>
+  <si>
     <t xml:space="preserve">飛竜に乗って
 エテーネの島の上空へ行き
 竜の香炉を使おう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Ride the flying dragon to the
+sky above the Island of Ethene
+and use the Dragon Incense.</t>
+  </si>
+  <si>
     <t xml:space="preserve">飛竜に乗って
 奈落の門へ　降り立とう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us ride the flying dragon
+down to the Abyss Gate.</t>
   </si>
   <si>
     <t xml:space="preserve">飛竜に乗って
@@ -128,12 +238,27 @@
 竜将アンテロを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Ride the flying dragon down to
+Abyss Gate and defeat the
+dragon general Antelo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">竜族の隠れ里の　族長の家にいる
 オルゲンに会いにいこう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go see Orgen at the
+Chief's home in Hidden Dragon
+Town.</t>
+  </si>
+  <si>
     <t xml:space="preserve">飛竜に乗って
 奈落の門の先へ旅立とう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's ride the flying dragon
+and set out beyond the Abyss
+Gate.</t>
   </si>
   <si>
     <t xml:space="preserve">アペカの村を出て
@@ -141,47 +266,100 @@
 ナドラガ神のほこらへ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's leave Apeka Village and
+go to the Nadraga God Shrine,
+north of the Red Hot Desert.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ナドラガ神のほこらの祭壇に
 竜族式の祈りのしぐさで
 祈りを捧げよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let us pray at the altar of the
+Nadraga God Shrine with the
+Dragon Prayer emote.</t>
+  </si>
+  <si>
     <t>アペカの村の宿屋で休もう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's rest at the Inn in Apeka
+Village.</t>
   </si>
   <si>
     <t xml:space="preserve">アペカの村の　ギダの家に行き
 ギダの話を聞こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Gida's house in
+Apeka Village and hear what
+Gida has to say.</t>
+  </si>
+  <si>
     <t xml:space="preserve">赤熱の荒野の南にある
 炎樹の丘へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Firetree Hill,
+south of Red Hot Desert.</t>
+  </si>
+  <si>
     <t xml:space="preserve">赤熱の荒野の東にある
 煉獄の谷の魔炎鳥の巣へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Darkflame Nest in
+Hell Valley, East Desert of Red
+Hot Desert.</t>
+  </si>
+  <si>
     <t xml:space="preserve">煉獄の谷の魔炎鳥の巣にいる
 魔炎鳥を倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat the Darkflame Nest in
+Hell Valley.</t>
+  </si>
+  <si>
     <t>アペカの村へ戻ろう。</t>
+  </si>
+  <si>
+    <t>Let's go back to Apeka Village.</t>
   </si>
   <si>
     <t xml:space="preserve">赤熱の荒野の西にある
 聖都エジャルナへ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the Holy City
+Ejarna, west of the Red Hot
+Desert.</t>
+  </si>
+  <si>
     <t xml:space="preserve">聖都エジャルナにある
 ナドラガ教団大神殿へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the Nadraga Order
+Great Temple in the Holy City
+Ejarna.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ナドラガ教団大神殿の
 集会所へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the Clubhouse of
+the Nadraga Order Great Temple.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ナドラガ教団大神殿の
 エステラの部屋へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to Estella's Room in
+the Nadraga Order Great Temple.</t>
   </si>
   <si>
     <t xml:space="preserve">聖都エジャルナの西門から出て
@@ -189,28 +367,58 @@
 マティルの村へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go out of the west gate
+of the Holy City Ejarna to the
+Matil Village in the [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">マティルの村の
 民家の２階へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to House 2F in Matil
+Village.</t>
+  </si>
+  <si>
     <t xml:space="preserve">マティルの村の北西にある
 フェザリアス山へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Fezarias Mountain,
+northwest of Matil Village.</t>
+  </si>
+  <si>
     <t xml:space="preserve">フェザリアス山　第２層にいる
 エルダーフレイムを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Elder Flame in Level 2,
+Fezarias Mountain.</t>
+  </si>
+  <si>
     <t xml:space="preserve">フェザリアス山の
 聖鳥の幽居へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Flamia's Refuge on
+Fezarias Mountain.</t>
+  </si>
+  <si>
     <t xml:space="preserve">烈火の渓谷の南西にある
 業炎の聖塔へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the Fire Tower
+southwest of the Valley of
+Fire.</t>
+  </si>
+  <si>
     <t xml:space="preserve">スイゼン湿原にある
 スイの塔へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to Sui Tower in Suizen
+Marsh.</t>
   </si>
   <si>
     <t xml:space="preserve">スイのやしろにある
@@ -218,18 +426,36 @@
 おまいりのしぐさをしよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's make an emote of worship
+at the two Land Shrines in Sui
+Shrine.</t>
+  </si>
+  <si>
     <t xml:space="preserve">スイのやしろの
 銅鏡の舞台にある　５つの太鼓を
 教えられたとおりに鳴らそう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's beat the five drums in
+the Bronze Mirror of Sui Shrine
+as instructed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">スイのやしろの
 銅鏡の舞台にある
 銅鏡を調べよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Check the bronze mirror in the
+Bronze Mirror at Sui Shrine.</t>
+  </si>
+  <si>
     <t xml:space="preserve">スイのやしろの　銅鏡の中にいる
 森羅蛮獣を倒そう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defeat Equistrion in the bronze
+mirror at Sui Shrine.</t>
   </si>
   <si>
     <t xml:space="preserve">山間の関所にいる
@@ -237,36 +463,73 @@
 森羅蛮毛を届けよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Deliver Harsh Hair to Enkara, a
+Tazuna craftsman in Mountain
+Pass.</t>
+  </si>
+  <si>
     <t xml:space="preserve">天ツ風の原にある神獣の森で
 神獣アマカムシカを探そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Find God Beast Amazlantelope at
+Stormbough in Heavenly Field.</t>
+  </si>
+  <si>
     <t xml:space="preserve">神獣の森の上層にある
 静寂の泉へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Quiet Spring on the
+upper level of Stormbough.</t>
+  </si>
+  <si>
     <t xml:space="preserve">神獣の森の　静寂の泉にいる
 巨竜樹タツノギを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Tree Dragon Tatsunogi at
+Quiet Spring in Stormbough.</t>
+  </si>
+  <si>
     <t xml:space="preserve">天ツ風の原にある
 烈風の岬へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Cape Squall in
+Heavenly Field.</t>
+  </si>
+  <si>
     <t xml:space="preserve">天ツ風の原の北にある
 ナドラガ神のほこらへ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Nadraga Shrine
+north of Heavenly Field.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ナドラガ神のほこらを
 抜けた先にある祭壇へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to Altar, located just past
+the Nadraga Shrine.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ナドラガ神のほこらの祭壇にいる
 激情の竜エステラを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Passion Dragon Estella
+at Altar in Nadraga Shrine.</t>
+  </si>
+  <si>
     <t xml:space="preserve">地下のムストの町の
 会議室へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to the Town of Must
+meeting room in the basement.</t>
   </si>
   <si>
     <t xml:space="preserve">天ツ風の原の南東にいる
@@ -274,8 +537,18 @@
 エレクトラムを手に入れよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Dark Buzzard southeast
+of Heavenly Field to get
+Electrum.</t>
+  </si>
+  <si>
     <t xml:space="preserve">地下のムストの町の
 集会所へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to the assembly hall
+of Town of Must in the
+basement.</t>
   </si>
   <si>
     <t xml:space="preserve">地下のムストの町の
@@ -283,26 +556,54 @@
 剣士ヒューザを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Swordsman Hyuza in the
+assembly hall of the
+underground Town of Must.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ヒューザの後を追い
 地上のムストの町へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's follow Hyuza to the Town
+of Must on the ground.</t>
+  </si>
+  <si>
     <t xml:space="preserve">迅雷の丘の北にある
 翠嵐の聖塔へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to Storm Tower north of
+Thunder Hill.</t>
+  </si>
+  <si>
     <t>翠嵐の聖塔に挑もう。</t>
+  </si>
+  <si>
+    <t>Take on Storm Tower.</t>
   </si>
   <si>
     <t xml:space="preserve">迅雷の丘の北東にいる
 ファラリスブルを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat the Brazen Bull
+northeast of Thunder Hill.</t>
+  </si>
+  <si>
     <t xml:space="preserve">翠嵐の聖塔にいる
 サノジに報告しよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Report to Sanoji at Storm
+Tower.</t>
+  </si>
+  <si>
     <t>翠嵐の聖塔　解放の間へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to Storm Tower
+Restoratory.</t>
   </si>
   <si>
     <t xml:space="preserve">翠嵐の聖塔　解放の間にいる
@@ -310,8 +611,17 @@
 嵐魔ウェンリルを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Black Snake Akragarena
+and Storm Demon Wenrir at Storm
+Tower Restoratory.</t>
+  </si>
+  <si>
     <t xml:space="preserve">聖都エジャルナの
 ナドラガ教団大神殿へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to Nadraga Order Great
+Temple in Holy City Ejarna.</t>
   </si>
   <si>
     <t xml:space="preserve">炎の領界の
@@ -319,37 +629,74 @@
 祭祀場へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the ritual site at
+the Nadraga Shrine in the Fire
+Realm.</t>
+  </si>
+  <si>
     <t xml:space="preserve">氷の領界の
 ナドラガ神のほこらにある
 祭祀場へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to the ritual site at the
+Nadraga Shrine in the Ice
+Realm.</t>
+  </si>
+  <si>
     <t xml:space="preserve">闇の領界の
 ナドラガ神のほこらにある
 祭祀場へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to the Ritual Hall at
+Nadraga Shrine in the Dark
+Realm.</t>
+  </si>
+  <si>
     <t xml:space="preserve">水の領界の
 ナドラガ神のほこらにある
 祭祀場へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the ritual site at
+Nadraga Shrine in Water Realm.</t>
+  </si>
+  <si>
     <t xml:space="preserve">嵐の領界の
 ナドラガ神のほこらにある
 祭祀場へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to the Ritual Hall at
+Nadraga Shrine in Storm Realm.</t>
+  </si>
+  <si>
     <t xml:space="preserve">地下のムストの町の
 騎士団の部屋にいる
 シンイと話そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Talk to Shini at Knight's
+Quarters in the underground
+Town of Must.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ナドラガ教団大神殿で
 総主教オルストフを探そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Find Patriarch Orstov at the
+Nadraga Order Great Temple.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ナドラガ教団大神殿の地下にある
 幽遠の牢獄へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to the Ghost Prison in
+the basement of the Nadraga
+Order Great Temple.</t>
   </si>
   <si>
     <t xml:space="preserve">ナドラガ教団大神殿の
@@ -357,16 +704,35 @@
 逆乱の竜ナダイアを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat the Rebellion Dragon
+Nadaia in the Ghost Prison of
+the Nadraga Order Great Temple.</t>
+  </si>
+  <si>
     <t xml:space="preserve">地下のムストの町の上層から
 地上の教会跡へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the church ruins
+from the upper level of the
+underground Town of Must.</t>
+  </si>
+  <si>
     <t xml:space="preserve">いざないの間の　旅の扉から
 神墟ナドラグラムへ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Nadragram Shrine
+from the teleportal of Hall of
+Invitation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">神墟ナドラグラムの
 調停の祭壇へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to the Mediation Altar
+at Nadragram Shrine.</t>
   </si>
   <si>
     <t xml:space="preserve">神墟ナドラグラムの
@@ -374,32 +740,65 @@
 祭司ドラガンに話しかけよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Talk to the priest Dragan at
+the Mediation Altar of the
+Nadragram Shrine.</t>
+  </si>
+  <si>
     <t xml:space="preserve">神墟ナドラグラムの
 調停の祭壇で
 竜族式の祈りのしぐさをしよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's emote Dragon Prayer at
+the Mediation Altar of
+Nadragram Shrine.</t>
+  </si>
+  <si>
     <t xml:space="preserve">神墟ナドラグラムの
 最奥にある
 竜神の柩へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to the Divine Dragon's
+Coffin at the far end of
+Nadragram Shrine.</t>
+  </si>
+  <si>
     <t xml:space="preserve">神墟ナドラグラムの
 竜神の柩にいる
 邪竜教祖オルストフを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Evil Dragon Guru Orstov
+at Divine Dragon's Coffin in
+Nadragram Shrine.</t>
+  </si>
+  <si>
     <t xml:space="preserve">神墟ナドラグラムに
 グランゼニスが遺した
 断罪の剣のもとへ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the Nadragram
+Shrine to the Sword of Sin left
+by Gran Zenith.</t>
+  </si>
+  <si>
     <t xml:space="preserve">竜神の世界の
 最深部を目指そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Aim for the depths of Within
+Nadraga.</t>
+  </si>
+  <si>
     <t xml:space="preserve">大神殿の中庭にいる
 皆に話しかけよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk to everyone in the Great
+Temple courtyard.</t>
   </si>
   <si>
     <t xml:space="preserve">ホーローからの手紙が届いたら
@@ -407,7 +806,16 @@
 ホーローの指示に従おう。</t>
   </si>
   <si>
+    <t xml:space="preserve">When you receive a letter from
+Hollow, read the letter and
+follow Hollow's instructions.</t>
+  </si>
+  <si>
     <t>物置にあるベッドで休もう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest on the bed in the storage
+room.</t>
   </si>
   <si>
     <t xml:space="preserve">ドミネウス邸３階にある
@@ -415,8 +823,18 @@
 銀色の箱を探そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Find the Silver Box in Quard's
+room on the 3rd floor of
+Domineus Mansion.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ドミネウス邸１階にいる
 執事ジェリナンの話を聞こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's talk to Gelinan, the
+butler on the first floor of
+Domineus Mansion.</t>
   </si>
   <si>
     <t xml:space="preserve">ドミネウス邸３階の
@@ -424,21 +842,45 @@
 侍女ハーミィの話を聞こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's listen to Hermy, an aide-
+de-camp in front of the terrace
+on the third floor of [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ドミネウス邸３階の
 侍女たちの部屋にいる
 侍女ポーラの話を聞こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's listen to Paula, an aide-
+de-camp on the third floor of
+Domineus Mansion, in the [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ドミネウス邸２階にある
 客間へ行き　銀色の箱を探そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to the parlor on the second
+floor of Domineus Mansion and
+look for the Silver Box.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ドミネウス邸３階にある
 テラスへ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the terrace on the
+3rd floor of Domineus Mansion.</t>
+  </si>
+  <si>
     <t xml:space="preserve">真グランゼドーラ城２階にある
 賢者の執務室へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true Let's go to Sage's office
+on the 2nd floor of Gran Zedora
+Castle.</t>
   </si>
   <si>
     <t xml:space="preserve">真のエテーネの島の
@@ -446,18 +888,36 @@
 イッショウの話を聞こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Listen to Issho the alchemist
+at Surea Coast on the True
+Island of Ethene.</t>
+  </si>
+  <si>
     <t xml:space="preserve">サザミレ草原の西にある
 ポルネア山へ行き
 シルバーデビルを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to Polnea Mountain west of
+Sazamire Prairie and defeat
+Silvapithecus.</t>
+  </si>
+  <si>
     <t xml:space="preserve">スレア海岸にいる
 イッショウに
 紫の封石を届けよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Deliver Purple Stone to Issho
+in Surea Coast.</t>
+  </si>
+  <si>
     <t xml:space="preserve">スレア海岸にある
 紫のほこらへ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to Purple Shrine in
+Surea Coast.</t>
   </si>
   <si>
     <t xml:space="preserve">スレア海岸の
@@ -465,25 +925,50 @@
 スライムエネルゴンを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Energon Slime at Purple
+Shrine in Surea Coast.</t>
+  </si>
+  <si>
     <t xml:space="preserve">真グランゼドーラ城の
 賢者の執務室にいる
 賢者ルシェンダに報告しよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Report to Sage Lushenda at
+Sage's office in true Gran
+Zedora Castle.</t>
+  </si>
+  <si>
     <t xml:space="preserve">廃墟のドミネウス邸から
 外に出よう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's get out of Abandoned
+Domineus Mansion.</t>
+  </si>
+  <si>
     <t xml:space="preserve">バントリユ地方の東にある
 辺境警備隊詰所を目指そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Aim for the Frontier Guard Post
+located east of Bantryu Region.</t>
+  </si>
+  <si>
     <t xml:space="preserve">辺境警備隊詰所にある
 警備隊本部へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to the guard's office at the
+Frontier Guard Post.</t>
+  </si>
+  <si>
     <t xml:space="preserve">バントリユ地方の西にある
 辺境のほら穴へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to Frontier Den, west
+of Bantryu Region.</t>
   </si>
   <si>
     <t xml:space="preserve">バントリユ地方の
@@ -491,36 +976,74 @@
 異形獣を倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Hexabeast in Frontier
+Den, Bantryu Region.</t>
+  </si>
+  <si>
     <t xml:space="preserve">辺境警備隊詰所にいる
 ラゴウ隊長に
 異形獣のツノを届けよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Deliver the Hexabeast Horn to
+Commander Lago at the Frontier
+Guard Post.</t>
+  </si>
+  <si>
     <t xml:space="preserve">エテーネ王国領にある
 王都キィンベルを目指そう</t>
   </si>
   <si>
+    <t xml:space="preserve">Located in Ethene Kingdom Area
+Aim for Royal City Kimbel</t>
+  </si>
+  <si>
     <t xml:space="preserve">王都キィンベルの北にある
 王国軍区画へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Royal Army Ward,
+north of Royal City Kimbel.</t>
+  </si>
+  <si>
     <t>王都キィンベルの宿屋へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to the innkeeper in
+Royal City Kimbel.</t>
   </si>
   <si>
     <t xml:space="preserve">王都キィンベルの
 宿屋の奥にある　酒場へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the tavern at the
+back of the inn in Royal City
+Kimbel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">王都キィンベルの東にある
 ゼフの店へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to Zef's Shop east of Royal
+City Kimbel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ゼフの店にいる
 リンカの話を聞いてみよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's hear what Linka at Zef's
+Shop has to say.</t>
+  </si>
+  <si>
     <t xml:space="preserve">王都キィンベルにある
 雑貨屋へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to the Shop in Royal
+City Kimbel.</t>
   </si>
   <si>
     <t xml:space="preserve">バントリユ地方で
@@ -528,32 +1051,66 @@
 手に入れよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Get 5 plants of screw louse
+root in Bantryu Region.</t>
+  </si>
+  <si>
     <t xml:space="preserve">王都キィンベルの
 雑貨屋にいる　ブルーノーに
 ネジガラミの根を届けよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Deliver screw louse root to
+Brunoe at the Royal City Kimbel
+Shop.</t>
+  </si>
+  <si>
     <t xml:space="preserve">王都キィンベルにある
 ゼフの店へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to Zef's Shop in Royal City
+Kimbel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ゼフの店の２階にいる
 シャンテに会いにいこう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Meet Shante on the 2nd floor of
+Zef's Shop.</t>
+  </si>
+  <si>
     <t xml:space="preserve">エテーネ王国領の南西にある
 ラウラリエの丘へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Laurarie Hill,
+southwest of Ethene Kingdom
+Area.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ラウラリエの丘にいる
 フローラルダンディを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Floral Dandy in Laurarie
+Hill.</t>
+  </si>
+  <si>
     <t>ラウラリエの丘の奥へ進もう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's proceed to the back of
+Laurarie Hill.</t>
   </si>
   <si>
     <t xml:space="preserve">王都キィンベルの
 ゼフの店に戻ろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go back to Zef's Shop in
+Royal City Kimbel.</t>
   </si>
   <si>
     <t xml:space="preserve">エテーネ王国領の南東にある
@@ -561,28 +1118,62 @@
 シャンテを追いかけよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Follow Shante to the Echoing
+Sea Cave southeast of the
+Ethene Kingdom Area.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残響の海蝕洞の奥へ向かった
 シャンテを追いかけよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Follow Shante as he heads
+deeper into the Echoing Sea
+Cave.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残響の海蝕洞の廃棄場にいる
 異形獣・狂を倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat the Hexabeast Madness in
+the disposal of Echoing Sea
+Cave.</t>
+  </si>
+  <si>
     <t xml:space="preserve">王国軍区画にある
 王国軍司令部へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Royal Army
+Headquarters in Royal Army
+Ward.</t>
+  </si>
+  <si>
     <t xml:space="preserve">王国軍司令部の軍団長室にいる
 クオードに会いにいこう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go see Quard at the
+commander's office at Royal
+Army Headquarters.</t>
+  </si>
+  <si>
     <t xml:space="preserve">王国軍区画にある
 転送の門へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Relay Gate in Royal
+Army Ward.</t>
+  </si>
+  <si>
     <t xml:space="preserve">王都キィンベルの北東にある
 ディアンジの家へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to Dianji's house
+located northeast of Royal City
+Kimbel.</t>
   </si>
   <si>
     <t xml:space="preserve">王都キィンベルの北東から
@@ -590,8 +1181,17 @@
 星落ちる谷を目指そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">From northeast of Royal City
+Kimbel, head for Starfall
+Valley in the Tiplone [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ティプローネ高地の北にある
 星落ちる谷を目指そう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to Starfall Valley, north of
+Tiplone Highlands.</t>
   </si>
   <si>
     <t xml:space="preserve">ティプローネ高地の
@@ -599,24 +1199,49 @@
 スパーキーを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Sparky in Starfall
+Valley, Tiplone Highlands.</t>
+  </si>
+  <si>
     <t xml:space="preserve">王都キィンベルにある
 ディアンジの家に戻ろう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go back to Dianji's house
+in Royal City Kimbel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">部屋を出ていった
 クオードを追いかけよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go after Quard who left
+the room.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ドミネウス邸の中にある
 クオードの手荷物を探そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Look for Quard's baggage in
+Domineus Mansion.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ドミネウス邸の空き部屋にある
 燭台を　動かしてみよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's move the candelabrum in
+the dominant room of Domineus
+Mansion.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ドミネウス邸の隠し扉の先にある
 荷物を調べよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the luggage at the hidden
+door of Domineus Mansion.</t>
   </si>
   <si>
     <t xml:space="preserve">ドミネウス邸にいる
@@ -624,17 +1249,34 @@
 星華のライトを当ててみよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Try to shine Starflower Light
+on a suspicious person in
+Domineus Mansion.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ドミネウス邸の食堂で
 さっきまでと違う
 違和感を探してみよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's look for something
+different in the dining room of
+Domineus Mansion.</t>
+  </si>
+  <si>
     <t xml:space="preserve">イル・ラビリンスにいる
 魔物を探そう。</t>
   </si>
   <si>
+    <t>Find the monster in Il Maze.</t>
+  </si>
+  <si>
     <t xml:space="preserve">イル・ラビリンスの中にある
 チェスのコマを探そう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the chess pieces in Il
+Maze.</t>
   </si>
   <si>
     <t xml:space="preserve">イル・ラビリンスの
@@ -642,51 +1284,105 @@
 チェスのコマを渡そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Give the chess board to Mereade
+in the night dining room of Il
+Maze.</t>
+  </si>
+  <si>
     <t xml:space="preserve">イル・ラビリンスの
 宵の食堂にいる
 チェックメイツを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat the checkmates in the
+night dining room of Il Maze.</t>
+  </si>
+  <si>
     <t xml:space="preserve">イル・ラビリンスの
 宵の食堂にいる
 メレアーデに話しかけよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Talk to Mereade in the night
+dining room at Il Maze.</t>
+  </si>
+  <si>
     <t xml:space="preserve">イル・ラビリンスの
 宵の食堂に出現した
 扉の先へ進もう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go through the door that
+appeared in the night dining
+room of Il Maze.</t>
+  </si>
+  <si>
     <t xml:space="preserve">イル・ラビリンスの
 宵の食堂の　扉の先にいる
 影魔レイミリアを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Shadow Demon Remilia at
+the door of the night dining
+room in Il Maze.</t>
+  </si>
+  <si>
     <t xml:space="preserve">王都キィンベル　王国軍区画の
 王国軍司令部　２階にある
 軍団長室へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the commander's
+office on the 2nd floor of
+Royal Army Headquarters [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">エテーネ王宮２階にある
 玉座の間へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the throne room on
+the 2nd floor of Ethene Royal
+Manor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">エテーネ王宮２階にある
 王族の居室へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the royal living
+room on the 2nd floor of Ethene
+Royal Manor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">エテーネ王宮１階にある
 転送の門へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to Relay Gate on the 1st
+floor of Ethene Royal Manor.</t>
+  </si>
+  <si>
     <t>パドレア邸の中に入ろう。</t>
   </si>
   <si>
+    <t>Let's go inside Padrea Mansion.</t>
+  </si>
+  <si>
     <t>パドレア邸の奥へ進もう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's proceed to the back of
+Padrea Mansion.</t>
   </si>
   <si>
     <t xml:space="preserve">エテーネ王宮２階にある
 テラスへ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to the terrace on the
+2nd floor of Ethene Royal
+Manor.</t>
   </si>
   <si>
     <t xml:space="preserve">エテーネ王宮１階にある
@@ -694,23 +1390,49 @@
 王都キィンベルへ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Use the Relay Gate on the 1st
+floor of Ethene Royal Manor to
+get to Royal City Kimbel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">王都キィンベルの北西にある
 ヨンゲ所長の家を調べよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Check out Director Yong's house
+northwest of Royal City Kimbel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ティプローネ高地の東にある
 自由人の集落を目指そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Aim for Freedom Village,
+located east of Tiplone
+Highlands.</t>
+  </si>
+  <si>
     <t xml:space="preserve">自由人の集落にいる
 ワグミカの話を聞こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Listen to Wagmika at Freedom
+Village.</t>
+  </si>
+  <si>
     <t>ワグミカの家から出ていこう。</t>
+  </si>
+  <si>
+    <t>Let's leave Wagmika's house.</t>
   </si>
   <si>
     <t xml:space="preserve">ワグミカの家にある宝箱から
 秘密の取っ手を　手に入れよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get the Secret Handles from the
+treasure chest in Wagmika's
+house.</t>
   </si>
   <si>
     <t xml:space="preserve">ヨンゲ所長の家２階にある
@@ -718,8 +1440,18 @@
 『０５２７』を入力しよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Check the Wardrobe on the
+second floor of Director Yong's
+house and enter the [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ヨンゲ所長の家１階にいる
 家政婦ママルボンの話を聞こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's listen to Mamarbon, the
+housekeeper on the first floor
+of Director Yong's house.</t>
   </si>
   <si>
     <t xml:space="preserve">宿屋の奥の酒場にいる
@@ -727,17 +1459,36 @@
 踊り子について聞いてみよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Ask tavern master Gallas,
+located in the tavern behind
+the inn, about dancers.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ギャラスのヒントに従い
 暗証番号につながる情報を
 集めよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Follow Gallas's hints to gather
+information that will lead to
+the PIN.</t>
+  </si>
+  <si>
     <t xml:space="preserve">暗証番号を推理して
 ヨンゲ所長の家２階にある
 タンスに入力しよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Guess the PIN number and enter
+it in the Wardrobe on the
+second floor of Director [...]</t>
+  </si>
+  <si>
     <t>王立アルケミアの奥へ進もう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to the back of Royal
+Alchemia.</t>
   </si>
   <si>
     <t xml:space="preserve">王立アルケミア　地下１階の
@@ -745,8 +1496,18 @@
 ヘルゲゴーグ・烈を倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Fierce Helgegog at the
+landfill site on the first
+basement floor of Royal [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">王立アルケミア１階から
 先進研究区画に入ろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the advanced research
+area from the first floor of
+Royal Alchemia.</t>
   </si>
   <si>
     <t xml:space="preserve">王立アルケミア１階から
@@ -754,23 +1515,50 @@
 機密研究室を調べよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Enter the advanced research
+area from the first floor of
+Royal Alchemia and check [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">エテーネ王宮の
 王族の居室へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the royal living
+room of Ethene Royal Manor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">エテーネ王宮の
 玉座の間へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the throne room at
+Ethene Royal Manor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">エテーネ王宮の地下牢にいる
 囚人バディンドの話を聞こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's talk to Badindo, a
+prisoner in the dungeon of
+Ethene Royal Manor.</t>
+  </si>
+  <si>
     <t>地下牢にあるベッドで休もう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest on the beds in the
+dungeon.</t>
   </si>
   <si>
     <t xml:space="preserve">エテーネ王宮１階にある
 御前広場へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to Imperial Plaza on
+the 1st floor of Ethene Royal
+Manor.</t>
   </si>
   <si>
     <t xml:space="preserve">エテーネ王宮の
@@ -778,15 +1566,33 @@
 自動人形ドミネウスを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Automaton Domineus at
+Imperial Plaza in Ethene Royal
+Manor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">エテーネ王宮の玉座の間にある
 執務室へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the office in the
+throne room of Ethene Royal
+Manor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">時見の神殿にある
 時見の祭壇へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to the Timeseer Altar at
+Timeseer Temple.</t>
+  </si>
+  <si>
     <t>時見の祭壇の奥へ進もう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's proceed to the back of
+Timeseer Altar.</t>
   </si>
   <si>
     <t xml:space="preserve">エテーネ王宮の玉座の間にある
@@ -794,33 +1600,68 @@
 ドミネウス王を倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to Timeseer Altar from the
+office in the throne room of
+Ethene Royal Manor and [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">真グランゼドーラ城の
 賢者の執務室にいる
 賢者ルシェンダの話を聞こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">true Let's talk to Sage
+Lushenda at Sage's office in
+Gran Zedora Castle.</t>
+  </si>
+  <si>
     <t xml:space="preserve">プクランド大陸　ポーポラ地方の
 賢者の隠れ家にいる
 賢者エイドスに会いにいこう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Meet Sage Eidos at Sage's Lair
+in Pukuland Continent Popola
+Region.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ポーポラ地方の南にある
 ペシュヤ地下空洞の中で
 しぐさ『聖別の詩歌』をしよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's emote "Holy Poetry" in
+the Peshuya Underground Cave,
+south of Popola Region.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ポーポラ地方の
 賢者の隠れ家に戻り
 賢者エイドスに報告しよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Return to Sage's Lair in Popola
+Region and report to Sage
+Eidos.</t>
+  </si>
+  <si>
     <t xml:space="preserve">真グランゼドーラ城１階の
 エレベーターを使って
 秘密会議室へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">true Let's go to the secret
+meeting room using the elevator
+on the first floor of [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">真グランゼドーラ城から
 外に出て　勇者の橋へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true Let's go out from Gran
+Zedora Castle and go to Bridge
+of Heroes.</t>
   </si>
   <si>
     <t xml:space="preserve">真グランゼドーラ城から
@@ -828,19 +1669,43 @@
 魔獣ネロスゴーグを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">true Go out from Gran Zedora
+Castle and defeat Demon Beast
+Nerosugog at Bridge of Heroes.</t>
+  </si>
+  <si>
     <t xml:space="preserve">真グランゼドーラ城１階にある
 勇者の聖壇へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">true Let's go to Hero's Altar
+on the 1st floor of Gran Zedora
+Castle.</t>
+  </si>
+  <si>
     <t>古グランゼドーラ城へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to Old Gran Zedora
+Castle.</t>
   </si>
   <si>
     <t xml:space="preserve">古グランゼドーラ城下町にいる
 猛将ギーグハンマーを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat General Giga Clubber in
+Old Gran Zedora Castle
+downtown.</t>
+  </si>
+  <si>
     <t xml:space="preserve">古グランゼドーラ城２階の
 玉座の間へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to the throne room on
+the 2nd floor of Old Gran
+Zedora Castle.</t>
   </si>
   <si>
     <t xml:space="preserve">グレン城の訓練場の上にある
@@ -848,13 +1713,27 @@
 原獣プレゴーグを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat Wild Beast Pregog at
+King's Ceremony on the training
+grounds of Glen Castle.</t>
+  </si>
+  <si>
     <t xml:space="preserve">いざないの間にいる
 バジネヅの試練に挑み
 護門将ゴウシルシャを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat the Protector General
+Goshylsa by challenging
+Bajinez's trial in the [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">いざないの間にいる
 バジネヅに話しかけよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk to Bajinez in the Hall of
+Invitation.</t>
   </si>
   <si>
     <t xml:space="preserve">いざないの間の
@@ -862,27 +1741,55 @@
 聖都エジャルナへ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Check the door south of Hall of
+Invitation and go to Holy City
+Ejarna.</t>
+  </si>
+  <si>
     <t xml:space="preserve">いざないの間にある
 氷の領界の　旅の扉を使い
 クラウジに報告しよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Report to Clauge using the Ice
+Realm teleportal in the Hall of
+Invitation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ナドラガ教団大神殿の
 総主教の部屋にいる
 総主教オルストフの話を聞こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Listen to Patriarch Orstov in
+the Patriarch's Room of the
+Nadraga Order's Grand Temple.</t>
+  </si>
+  <si>
     <t xml:space="preserve">氷晶の聖塔の南東にある
 円盤の遺跡から
 闇の領界へ旅立とう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's start our journey to the
+Dark Realm from the Disc Ruins
+located southeast of the [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">闇の辺獄の北東にある
 カーラモーラ村へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Carlamora Village,
+northeast of Dark Edge.</t>
+  </si>
+  <si>
     <t xml:space="preserve">カーラモーラ村にある
 浄月の間へ行こう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go to Moonlit Hall in
+Carlamora Village.</t>
   </si>
   <si>
     <t xml:space="preserve">カーラモーラ村から
@@ -890,32 +1797,66 @@
 楽園への扉へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the Door to Utopia
+at the end of Dark Edge from
+Carlamora Village.</t>
+  </si>
+  <si>
     <t xml:space="preserve">カーラモーラ村の下層から
 影の谷の東にある
 ナドラガ神のほこらへ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">From the lower level of
+Carlamora Village, go to
+Nadraga Shrine, east of [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ナドラガ神のほこらの
 祭壇を調べよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Find out the altar of the
+Nadraga Shrine.</t>
+  </si>
+  <si>
     <t xml:space="preserve">闇の辺獄にある
 楽園への扉へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Door to Utopia in
+Dark Edge.</t>
+  </si>
+  <si>
     <t xml:space="preserve">楽園への扉の先にいる
 悪魔の手下たちを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat the Devil's Minions at
+the end of Door to Utopia.</t>
+  </si>
+  <si>
     <t>楽園へ至る間から楽園へ行こう。</t>
+  </si>
+  <si>
+    <t>The Way to Utopia from Utopia.</t>
   </si>
   <si>
     <t xml:space="preserve">グレン城下町の駅から
 過去世界へと旅立とう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's travel to the past from
+the train station in Glen
+Castle Town.</t>
+  </si>
+  <si>
     <t xml:space="preserve">町の宿屋にいる
 案内係に話しかけよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk to the information desk at
+the inn in town.</t>
   </si>
   <si>
     <t xml:space="preserve">ソーラリア峡谷の先にある
@@ -923,20 +1864,43 @@
 結界の間へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to the Barrier Chamber of
+Historic Ruins at the end of
+Solaria Canyon.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ジュレットの町の
 ソーミャの家へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to Somya's House in
+Julet.</t>
+  </si>
+  <si>
     <t xml:space="preserve">古き神の遺跡の　結界の間にいる
 獣魔将ガルレイを倒そう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat General Gullray in the
+Barrier Chamber of Historic
+Ruins.</t>
+  </si>
+  <si>
     <t xml:space="preserve">古き神の遺跡の
 結界の間の奥へ行こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go to the back of the
+Barrier Chamber in Historic
+Ruins.</t>
+  </si>
+  <si>
     <t xml:space="preserve">真グランゼドーラ城の
 賢者の執務室に戻ろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go back to Sage's Office
+in true Gran Zedora Castle.</t>
   </si>
   <si>
     <t xml:space="preserve">真グランゼドーラ城の
@@ -944,13 +1908,28 @@
 賢者ルシェンダに話しかけよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Talk to Sage Lushenda at Sage's
+Office in the true Gran Zedora
+Castle.</t>
+  </si>
+  <si>
     <t xml:space="preserve">真グランゼドーラ城１階の
 エレベーターで秘密会議室へ行き
 ミルトの話を聞こう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Take the elevator on the first
+floor of the true Gran Zedora
+Castle to the Secret [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ラギ雪原の小屋に住む
 技師バジェオに会いにいこう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet Bajeo, an engineer who
+lives in the Cabin at Ragi
+Snowfield.</t>
   </si>
   <si>
     <t xml:space="preserve">ラギ雪原の北西などにいる
@@ -958,6 +1937,11 @@
 魔光レンズを手に入れよう。</t>
   </si>
   <si>
+    <t xml:space="preserve">Defeat the Killing Machine in
+the northwest of Ragi Snowfield
+and other areas to get [...]</t>
+  </si>
+  <si>
     <t xml:space="preserve">真グランゼドーラ城１階の
 エレベーターを使い
 秘密会議室へ行こう。</t>
@@ -966,6 +1950,11 @@
     <t xml:space="preserve">秘密会議室の　緑の椅子から
 賢者ブロッゲンを呼び出し
 破邪の秘儀の試練を受けよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call Sage Broggen from the
+green chair in the Secret
+Meeting Room to receive a [...]</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +2367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B225"/>
+  <dimension ref="A1:C225"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="80.7109375" customWidth="1"/>
@@ -1392,1796 +2381,2468 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="C74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="C85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="C86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="C88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="C90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="C91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="C92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="C93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="C94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="C95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="C96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="C97" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="C100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="C101" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="C102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="C103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="C104" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="C105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="C106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="C107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="C108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="C109" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="C110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="C111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="C112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="C113" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="C114" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="C115" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="C116" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="C117" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="C118" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="C119" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="C120" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="C121" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="C122" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="C123" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="C124" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="C125" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="C126" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="C127" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="C128" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="C129" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="C130" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="C131" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="C132" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="C133" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="C134" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="C135" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="C136" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="C137" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="C138" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="C139" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="C140" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="C141" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>142</v>
+        <v>282</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="C142" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="C143" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>286</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="C144" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>145</v>
+        <v>288</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="C145" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>290</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="C146" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>147</v>
+        <v>292</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="C147" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="C148" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="C149" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="C150" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="C151" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="C152" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="C153" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="C154" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="C155" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="C156" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="C157" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>158</v>
+        <v>314</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="C158" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="C159" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>160</v>
+        <v>318</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="C160" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>161</v>
+        <v>320</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="C161" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="C162" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>163</v>
+        <v>324</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="C163" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="C164" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>165</v>
+        <v>328</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="C165" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>166</v>
+        <v>330</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="C166" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>167</v>
+        <v>332</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="C167" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="C168" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="C169" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>170</v>
+        <v>338</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="C170" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="C171" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>172</v>
+        <v>342</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="C172" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>173</v>
+        <v>344</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="C173" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>174</v>
+        <v>346</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="C174" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>175</v>
+        <v>348</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="C175" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="C176" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>177</v>
+        <v>352</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="C177" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>178</v>
+        <v>354</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="C178" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>179</v>
+        <v>356</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="C179" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>180</v>
+        <v>358</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="C180" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>181</v>
+        <v>360</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="C181" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>182</v>
+        <v>362</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="C182" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>183</v>
+        <v>364</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="C183" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>184</v>
+        <v>366</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="C184" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>185</v>
+        <v>368</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="C185" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>186</v>
+        <v>370</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="C186" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>187</v>
+        <v>372</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="C187" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="C188" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>189</v>
+        <v>376</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="C189" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>190</v>
+        <v>378</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="C190" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>191</v>
+        <v>380</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="C191" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>192</v>
+        <v>382</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="C192" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>193</v>
+        <v>384</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="C193" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>194</v>
+        <v>386</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="C194" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>195</v>
+        <v>388</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="C197" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>196</v>
+        <v>390</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="C198" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="C199" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>198</v>
+        <v>394</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="C200" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="C201" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="C202" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="C203" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="C204" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>203</v>
+        <v>404</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="C205" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>204</v>
+        <v>406</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="C206" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>205</v>
+        <v>408</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="C207" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>206</v>
+        <v>410</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="C208" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>207</v>
+        <v>412</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="C209" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>208</v>
+        <v>414</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="C210" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>209</v>
+        <v>416</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="C211" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>210</v>
+        <v>418</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="C214" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>211</v>
+        <v>420</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="C215" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>212</v>
+        <v>422</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="C216" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>213</v>
+        <v>424</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="C217" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>214</v>
+        <v>426</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="C218" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>215</v>
+        <v>428</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="C219" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="C220" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>217</v>
+        <v>432</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="C221" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>218</v>
+        <v>434</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="C222" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>219</v>
+        <v>436</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="C223" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>220</v>
+        <v>438</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="C224" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>221</v>
+        <v>439</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>221</v>
+        <v>440</v>
+      </c>
+      <c r="C225" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
